--- a/Table_Experiments.xlsx
+++ b/Table_Experiments.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\My Drive\PhD Program\Research\Corroded BBT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ConditionDependentPBEE\ExperimentalProgram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA06C896-DA32-4B9C-9106-8FF0B32C1D4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{71654C48-2199-4D77-A2C1-7838E56664B1}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -81,7 +80,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,24 +449,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07D1C9D-B445-44EE-8B29-F7D91A66153F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C3" sqref="C3:C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.83984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.20703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.83984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.3125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.83984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -493,7 +493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -502,7 +502,7 @@
       </c>
       <c r="C3" s="1" t="str">
         <f>+CONCATENATE("CL-",B3,"-",IF(A3="Tension","T","BBT"),"-",M3)</f>
-        <v>CL-0-T-</v>
+        <v>CL-0-T-1</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
@@ -519,8 +519,11 @@
       <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -529,7 +532,7 @@
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" ref="C4:C5" si="0">+CONCATENATE("CL-",B4,"-",IF(A4="Tension","T","BBT"),"-",M4)</f>
-        <v>CL-0-T-</v>
+        <v>CL-0-T-2</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
@@ -546,8 +549,11 @@
       <c r="H4" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -556,7 +562,7 @@
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CL-0-T-</v>
+        <v>CL-0-T-3</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
@@ -573,8 +579,11 @@
       <c r="H5" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -604,7 +613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -634,7 +643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -664,7 +673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -694,7 +703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -724,7 +733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -754,7 +763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -784,7 +793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,7 +823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -844,7 +853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,7 +883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -904,7 +913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -934,7 +943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,7 +973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -994,7 +1003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -1024,7 +1033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
@@ -1054,7 +1063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -1084,7 +1093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
@@ -1114,7 +1123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -1144,7 +1153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -1174,7 +1183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
@@ -1204,7 +1213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
@@ -1234,7 +1243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
@@ -1264,7 +1273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -1294,7 +1303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
@@ -1324,7 +1333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
@@ -1354,7 +1363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
@@ -1384,7 +1393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -1414,7 +1423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -1444,7 +1453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
@@ -1474,7 +1483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
@@ -1504,7 +1513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -1534,7 +1543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -1564,7 +1573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -1594,7 +1603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -1624,7 +1633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
@@ -1654,7 +1663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
@@ -1684,7 +1693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
@@ -1714,7 +1723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
@@ -1744,7 +1753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
@@ -1774,7 +1783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -1804,7 +1813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
@@ -1834,7 +1843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>9</v>
       </c>
@@ -1864,7 +1873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>9</v>
       </c>
@@ -1894,7 +1903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>9</v>
       </c>
@@ -1924,7 +1933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>9</v>
       </c>
@@ -1954,7 +1963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>9</v>
       </c>
@@ -1984,7 +1993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>9</v>
       </c>
@@ -2014,7 +2023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>9</v>
       </c>
@@ -2044,7 +2053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>9</v>
       </c>
@@ -2074,7 +2083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>9</v>
       </c>
